--- a/biology/Botanique/Fenouil/Fenouil.xlsx
+++ b/biology/Botanique/Fenouil/Fenouil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
 fenouil, sur le Wiktionnaire
-Fenouil est un nom vernaculaire ambigu désignant, en français, une multitude de plantes de genres divers, notamment de la famille des Apiaceae. Ce sont des plantes herbacées au feuillage aromatique, dont certaines sont consommables. Le mot fenouil provient du latin Foeniculum qui signifie foin (foenum) de petite taille (-culum est un diminutif), nom donné en raison de la finesse de son feuillage[1].
+Fenouil est un nom vernaculaire ambigu désignant, en français, une multitude de plantes de genres divers, notamment de la famille des Apiaceae. Ce sont des plantes herbacées au feuillage aromatique, dont certaines sont consommables. Le mot fenouil provient du latin Foeniculum qui signifie foin (foenum) de petite taille (-culum est un diminutif), nom donné en raison de la finesse de son feuillage.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Liste de plantes appelées « fenouil » en français</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Note: certains noms correspondent à un même taxon botanique.
 « Faux Fenouil » - Carex panicea
